--- a/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\proforma Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BAB557-50CF-4C94-9FF7-051CD5A058DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A19A3-2C8E-410E-8B33-77A29BB13FAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t xml:space="preserve">  info@bkexportsinternational.com</t>
   </si>
@@ -141,42 +141,7 @@
     <t>1 X FCL</t>
   </si>
   <si>
-    <t>PI2502/25-26</t>
-  </si>
-  <si>
-    <t>Pasir Gudang</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>CNF</t>
-  </si>
-  <si>
-    <t>Wooden Crate Packing</t>
-  </si>
-  <si>
-    <t>Sparkle White Slab: 3000 X1400X15 mm</t>
-  </si>
-  <si>
-    <t>Sparkle Black Slab: 3000 X1400X15 mm</t>
-  </si>
-  <si>
-    <t>Sparkle Orange Slab: 3000 X1400X15 mm</t>
-  </si>
-  <si>
-    <t>Sandy White Slab: 3000 X1400X15 mm</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1. Thickness various in 15mm = +/- 0.75mm</t>
-  </si>
-  <si>
-    <t>Rubino Industry Sdn Bhd
-No. 6 &amp; 6A, Jalan Sri Purnama 2/1,
-Perindustrian Sri Purnama,
-81100 Johor Bahru,Johor.
-email: account@rubino.com
-Contact : +60-11-10626673</t>
   </si>
   <si>
     <t xml:space="preserve">  +91 9537651265, +91 9313035076</t>
@@ -189,7 +154,31 @@
 - 380026.</t>
   </si>
   <si>
-    <t>LC at Sight</t>
+    <t>PI2503/25-26</t>
+  </si>
+  <si>
+    <t>Dominician Republic</t>
+  </si>
+  <si>
+    <t>FOB</t>
+  </si>
+  <si>
+    <t>Loose Packing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Galaxy black Granite
+ 180 CM UP X 70 CM UP, Thickness 18mm+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Absolute black Granite
+ 180 CM UP X 60 CM UP, Thickness 18mm+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEDI Marble
+Contact no: +1 8297497345</t>
+  </si>
+  <si>
+    <t>30% Advance and Remaining Against Documents (After BL Release within 7 days)</t>
   </si>
 </sst>
 </file>
@@ -611,6 +600,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -623,24 +639,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -650,6 +648,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -662,62 +705,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,13 +732,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>148653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1113,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q34"/>
+  <dimension ref="B1:Q32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,18 +1122,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
@@ -1171,14 +1160,14 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="65"/>
+      <c r="J3" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1189,48 +1178,48 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25"/>
-      <c r="J4" s="66">
-        <v>45752</v>
-      </c>
-      <c r="K4" s="65"/>
+      <c r="J4" s="82">
+        <v>45775</v>
+      </c>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="66">
-        <v>45759</v>
-      </c>
-      <c r="K5" s="65"/>
+      <c r="J5" s="82">
+        <v>45792</v>
+      </c>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="65"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1241,10 +1230,10 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="65"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1259,10 +1248,10 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="65"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1277,10 +1266,10 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="65"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
@@ -1293,10 +1282,8 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="65"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1311,108 +1298,108 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="65"/>
+      <c r="J11" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="48"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="24" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="65"/>
+      <c r="J12" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="24" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="65"/>
+      <c r="J13" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="35" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="70"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="71" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="78"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
     </row>
     <row r="17" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
@@ -1441,121 +1428,98 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="C19" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20">
-        <v>68101990</v>
+        <v>68022390</v>
       </c>
       <c r="I19" s="20">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="J19" s="21">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="K19" s="22">
         <f>I19*J19</f>
-        <v>3307.5</v>
+        <v>5400</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="C20" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="19"/>
       <c r="H20" s="20">
-        <v>68101990</v>
+        <v>68022390</v>
       </c>
       <c r="I20" s="20">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="J20" s="21">
-        <v>22.5</v>
+        <v>30.5</v>
       </c>
       <c r="K20" s="22">
-        <f t="shared" ref="K20:K21" si="0">I20*J20</f>
-        <v>3307.5</v>
+        <f t="shared" ref="K20" si="0">I20*J20</f>
+        <v>6862.5</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18">
-        <v>3</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20">
-        <v>68101990</v>
-      </c>
-      <c r="I21" s="20">
-        <v>147</v>
-      </c>
-      <c r="J21" s="21">
-        <v>22.5</v>
-      </c>
-      <c r="K21" s="22">
-        <f t="shared" si="0"/>
-        <v>3307.5</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18">
-        <v>4</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20">
-        <v>68101990</v>
-      </c>
-      <c r="I22" s="20">
-        <v>147</v>
-      </c>
-      <c r="J22" s="21">
+    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="22">
-        <f>I22*J22</f>
-        <v>3822</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>26</v>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="37">
+        <f>SUM(K19:K20)</f>
+        <v>12262.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="44" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -1563,18 +1527,13 @@
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="37">
-        <f>SUM(K19:K22)</f>
-        <v>13744.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -1582,154 +1541,123 @@
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="40" t="s">
+      <c r="I24" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="39">
-        <f>K23</f>
-        <v>13744.5</v>
-      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="39">
+        <f>K21</f>
+        <v>12262.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="38"/>
+      <c r="B27" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28"/>
-    </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
+      <c r="B28" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="56"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+    </row>
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
+  <mergeCells count="47">
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>
@@ -1747,14 +1675,15 @@
     <mergeCell ref="B12:E17"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="B30:F34"/>
-    <mergeCell ref="G30:K34"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B28:F32"/>
+    <mergeCell ref="G28:K32"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
     <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
@@ -1763,19 +1692,19 @@
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="I21:J22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\proforma Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A19A3-2C8E-410E-8B33-77A29BB13FAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DBA642-3AD9-4D74-9ACA-634240B73BC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,15 +170,15 @@
  180 CM UP X 70 CM UP, Thickness 18mm+</t>
   </si>
   <si>
-    <t xml:space="preserve"> Absolute black Granite
- 180 CM UP X 60 CM UP, Thickness 18mm+</t>
-  </si>
-  <si>
     <t xml:space="preserve"> MEDI Marble
 Contact no: +1 8297497345</t>
   </si>
   <si>
     <t>30% Advance and Remaining Against Documents (After BL Release within 7 days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Absolute black Granite
+ 180 CM UP X 70 CM UP, Thickness 18mm+</t>
   </si>
 </sst>
 </file>
@@ -534,27 +534,138 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,122 +702,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,18 +1122,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
@@ -1148,22 +1148,22 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="47" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="48"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1172,50 +1172,50 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="82">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="31">
         <v>45775</v>
       </c>
-      <c r="K4" s="48"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="23" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="82">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="31">
         <v>45792</v>
       </c>
-      <c r="K5" s="48"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="47" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1224,16 +1224,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="47" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="48"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1242,16 +1242,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="47" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="48"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1260,30 +1260,30 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="47" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="48"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1292,114 +1292,114 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="47" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="48"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="37"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="37"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="52"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="48"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="52"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="52"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="73"/>
+      <c r="K15" s="61"/>
     </row>
     <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
     </row>
     <row r="17" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
@@ -1432,12 +1432,12 @@
       <c r="B19" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20">
         <v>68022390</v>
@@ -1460,12 +1460,12 @@
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="C20" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="19"/>
       <c r="H20" s="20">
         <v>68022390</v>
@@ -1485,179 +1485,210 @@
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="45" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="37">
+      <c r="J21" s="82"/>
+      <c r="K21" s="74">
         <f>SUM(K19:K20)</f>
         <v>12262.5</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="38"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="75"/>
     </row>
     <row r="23" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="40" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="39">
+      <c r="J24" s="78"/>
+      <c r="K24" s="76">
         <f>K21</f>
         <v>12262.5</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="38"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="75"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="57" t="s">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="51"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="52"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="55"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="B28:F32"/>
+    <mergeCell ref="G28:K32"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>
@@ -1674,37 +1705,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B12:E17"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="B28:F32"/>
-    <mergeCell ref="G28:K32"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="I21:J22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\proforma Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DBA642-3AD9-4D74-9ACA-634240B73BC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99CE98-A1D4-4973-A10D-A948428471B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t xml:space="preserve">  info@bkexportsinternational.com</t>
   </si>
@@ -39,9 +39,6 @@
     <t>SR. NO.</t>
   </si>
   <si>
-    <t>QUANTITY(m2)</t>
-  </si>
-  <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>1 X FCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Thickness various in 15mm = +/- 0.75mm</t>
   </si>
   <si>
     <t xml:space="preserve">  +91 9537651265, +91 9313035076</t>
@@ -154,31 +148,42 @@
 - 380026.</t>
   </si>
   <si>
-    <t>PI2503/25-26</t>
-  </si>
-  <si>
-    <t>Dominician Republic</t>
-  </si>
-  <si>
     <t>FOB</t>
   </si>
   <si>
-    <t>Loose Packing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Galaxy black Granite
- 180 CM UP X 70 CM UP, Thickness 18mm+</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MEDI Marble
-Contact no: +1 8297497345</t>
-  </si>
-  <si>
     <t>30% Advance and Remaining Against Documents (After BL Release within 7 days)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Absolute black Granite
- 180 CM UP X 70 CM UP, Thickness 18mm+</t>
+    <t>PI2504/25-26</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>WOODEN CRATE</t>
+  </si>
+  <si>
+    <t>QUANTITY(sqft)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Size may vary +/- 11 inch in length, +/- 6 inch in height
+ 2. Amount may change as per size change</t>
+  </si>
+  <si>
+    <t>Black Pearl: One side Top Polish
+Size 121"X72" : Thickness 2 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quartz 
+Size 3200 X 1600mm : Thickness 2 CM</t>
+  </si>
+  <si>
+    <t>Viscon White : One side Top Polish
+Size 121"X72" : Thickness 3 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décors usa
+</t>
   </si>
 </sst>
 </file>
@@ -494,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -534,6 +539,165 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -546,167 +710,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -732,13 +740,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>148653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1102,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q32"/>
+  <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,18 +1130,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
@@ -1148,92 +1156,92 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="27" t="s">
+      <c r="F3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="28"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="82">
+        <v>45827</v>
+      </c>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="31">
-        <v>45775</v>
-      </c>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="82">
+        <v>45838</v>
+      </c>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31">
-        <v>45792</v>
-      </c>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="28"/>
+      <c r="F7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1242,16 +1250,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="28"/>
+      <c r="F8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1260,146 +1268,146 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="28"/>
+      <c r="F9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
+      <c r="F10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="27" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="32" t="s">
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="72" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="61"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
     </row>
     <row r="17" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
@@ -1413,16 +1421,16 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -1432,263 +1440,260 @@
       <c r="B19" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="C19" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20">
         <v>68022390</v>
       </c>
       <c r="I19" s="20">
-        <v>225</v>
+        <v>1694</v>
       </c>
       <c r="J19" s="21">
-        <v>24</v>
+        <v>3.4</v>
       </c>
       <c r="K19" s="22">
         <f>I19*J19</f>
-        <v>5400</v>
+        <v>5759.5999999999995</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="19"/>
       <c r="H20" s="20">
         <v>68022390</v>
       </c>
       <c r="I20" s="20">
-        <v>225</v>
+        <v>363</v>
       </c>
       <c r="J20" s="21">
-        <v>30.5</v>
+        <v>5.35</v>
       </c>
       <c r="K20" s="22">
         <f t="shared" ref="K20" si="0">I20*J20</f>
-        <v>6862.5</v>
+        <v>1942.05</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
+    <row r="21" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>3</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20">
+        <v>68021990</v>
+      </c>
+      <c r="I21" s="20">
+        <v>55.11</v>
+      </c>
+      <c r="J21" s="21">
+        <v>9</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" ref="K21" si="1">I21*J21</f>
+        <v>495.99</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="32"/>
+      <c r="K22" s="72">
+        <f>SUM(K19:K21)</f>
+        <v>8197.64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="81" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="73"/>
+    </row>
+    <row r="24" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="74">
-        <f>SUM(K19:K20)</f>
-        <v>12262.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="75"/>
-    </row>
-    <row r="23" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
+      <c r="J25" s="76"/>
+      <c r="K25" s="74">
+        <f>K22</f>
+        <v>8197.64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="76">
-        <f>K21</f>
-        <v>12262.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="73"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="75"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="67"/>
+    </row>
+    <row r="28" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="67"/>
-    </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="44"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="B28:F32"/>
-    <mergeCell ref="G28:K32"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
+  <mergeCells count="48">
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>
@@ -1705,6 +1710,38 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B12:E17"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="B29:F33"/>
+    <mergeCell ref="G29:K33"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\proforma Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99CE98-A1D4-4973-A10D-A948428471B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E141579E-867D-45D9-8700-2D7D8A4DC856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t xml:space="preserve">  info@bkexportsinternational.com</t>
   </si>
@@ -148,42 +148,40 @@
 - 380026.</t>
   </si>
   <si>
-    <t>FOB</t>
-  </si>
-  <si>
-    <t>30% Advance and Remaining Against Documents (After BL Release within 7 days)</t>
-  </si>
-  <si>
-    <t>PI2504/25-26</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>WOODEN CRATE</t>
-  </si>
-  <si>
-    <t>QUANTITY(sqft)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Size may vary +/- 11 inch in length, +/- 6 inch in height
- 2. Amount may change as per size change</t>
-  </si>
-  <si>
-    <t>Black Pearl: One side Top Polish
-Size 121"X72" : Thickness 2 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quartz 
-Size 3200 X 1600mm : Thickness 2 CM</t>
-  </si>
-  <si>
-    <t>Viscon White : One side Top Polish
-Size 121"X72" : Thickness 3 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décors usa
+    <t>PI2505/25-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÔNG TY TNHH KGM STONE
+4101622149
+Lô F12 đường Điện Biên Phủ, phường Quy Nhơn Đông, tỉnh Gia Lai, Việt Nam
+Email: kgmstone22@gmail.com
+Sđt: 093 2442 343
 </t>
+  </si>
+  <si>
+    <t>100% against Documents</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>CNF</t>
+  </si>
+  <si>
+    <t>Quy Nhon</t>
+  </si>
+  <si>
+    <t>Loose Packing</t>
+  </si>
+  <si>
+    <t>Polished Granite Slabs</t>
+  </si>
+  <si>
+    <t>QUANTITY(sqm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Granite is being natural stone some variation in thickness -/+1mm  
+2. Quantity may vary 10% +/-</t>
   </si>
 </sst>
 </file>
@@ -287,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -489,6 +487,37 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -499,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -539,182 +568,200 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,7 +1160,7 @@
   <dimension ref="B1:Q33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J15" sqref="J15:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,18 +1177,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
@@ -1156,22 +1203,22 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="50"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1180,50 +1227,50 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="82">
-        <v>45827</v>
-      </c>
-      <c r="K4" s="50"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="31">
+        <v>45856</v>
+      </c>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="23" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="82">
-        <v>45838</v>
-      </c>
-      <c r="K5" s="50"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="31">
+        <v>45868</v>
+      </c>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="49" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="50"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1232,16 +1279,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="49" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="50"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1250,16 +1297,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="49" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="50"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1268,30 +1315,32 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="49" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="50"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1300,114 +1349,114 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="49" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="50"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="24" t="s">
+      <c r="B12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="50"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="24" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="50"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="26" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="35" t="s">
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="37" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="44"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="78"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
     </row>
     <row r="17" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
@@ -1424,7 +1473,7 @@
         <v>33</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>9</v>
@@ -1440,260 +1489,265 @@
       <c r="B19" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20">
         <v>68022390</v>
       </c>
       <c r="I19" s="20">
-        <v>1694</v>
+        <v>431.56</v>
       </c>
       <c r="J19" s="21">
-        <v>3.4</v>
+        <v>13.5</v>
       </c>
       <c r="K19" s="22">
         <f>I19*J19</f>
-        <v>5759.5999999999995</v>
+        <v>5826.06</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="2:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18">
-        <v>2</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20">
-        <v>68022390</v>
-      </c>
-      <c r="I20" s="20">
-        <v>363</v>
-      </c>
-      <c r="J20" s="21">
-        <v>5.35</v>
-      </c>
-      <c r="K20" s="22">
-        <f t="shared" ref="K20" si="0">I20*J20</f>
-        <v>1942.05</v>
-      </c>
+    <row r="20" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
-        <v>3</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20">
-        <v>68021990</v>
-      </c>
-      <c r="I21" s="20">
-        <v>55.11</v>
-      </c>
-      <c r="J21" s="21">
-        <v>9</v>
-      </c>
-      <c r="K21" s="22">
-        <f t="shared" ref="K21" si="1">I21*J21</f>
-        <v>495.99</v>
-      </c>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="72">
+      <c r="J22" s="66"/>
+      <c r="K22" s="57">
         <f>SUM(K19:K21)</f>
-        <v>8197.64</v>
+        <v>5826.06</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="73"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="75" t="s">
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="74">
+      <c r="J25" s="61"/>
+      <c r="K25" s="59">
         <f>K22</f>
-        <v>8197.64</v>
+        <v>5826.06</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="73"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="58"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="52"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
+      <c r="B28" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="52" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="60"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="B20:K21"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="B29:F33"/>
+    <mergeCell ref="G29:K33"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>
@@ -1710,38 +1764,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B12:E17"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="G29:K33"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\proforma Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E141579E-867D-45D9-8700-2D7D8A4DC856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB49FBA5-1D9D-4BB9-B864-744FF3E2F365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t xml:space="preserve">  info@bkexportsinternational.com</t>
   </si>
@@ -146,9 +146,6 @@
   <si>
     <t>90, Jasodanagar Cross Road, Nr. Canal, Opp. Baroda Express Highway, Amraiwadi, Ahmedabad, Gujarat, India
 - 380026.</t>
-  </si>
-  <si>
-    <t>PI2505/25-26</t>
   </si>
   <si>
     <t xml:space="preserve">CÔNG TY TNHH KGM STONE
@@ -182,6 +179,9 @@
   <si>
     <t xml:space="preserve"> 1. Granite is being natural stone some variation in thickness -/+1mm  
 2. Quantity may vary 10% +/-</t>
+  </si>
+  <si>
+    <t>PI2506/25-26</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -568,6 +568,159 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -586,182 +739,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1159,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:K17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,18 +1168,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
@@ -1203,22 +1194,22 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="28"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1227,50 +1218,50 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="31">
-        <v>45856</v>
-      </c>
-      <c r="K4" s="28"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="82">
+        <v>45868</v>
+      </c>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31">
-        <v>45868</v>
-      </c>
-      <c r="K5" s="28"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="82">
+        <v>45884</v>
+      </c>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="81" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="27" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1279,16 +1270,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="27" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1297,16 +1288,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="27" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1315,32 +1306,32 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="27" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="28"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="81"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1349,114 +1340,114 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="27" t="s">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="81"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+      <c r="K12" s="81"/>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="81"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="68"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="76"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
@@ -1473,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>9</v>
@@ -1489,265 +1480,247 @@
       <c r="B19" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="C19" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20">
         <v>68022390</v>
       </c>
       <c r="I19" s="20">
-        <v>431.56</v>
+        <v>306.39999999999998</v>
       </c>
       <c r="J19" s="21">
         <v>13.5</v>
       </c>
       <c r="K19" s="22">
         <f>I19*J19</f>
-        <v>5826.06</v>
+        <v>4136.3999999999996</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
+      <c r="B20" s="18">
+        <v>2</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20">
+        <v>68022390</v>
+      </c>
+      <c r="I20" s="20">
+        <v>124.29</v>
+      </c>
+      <c r="J20" s="21">
+        <v>22.2</v>
+      </c>
+      <c r="K20" s="22">
+        <f>I20*J20</f>
+        <v>2759.2379999999998</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="65" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="57">
+      <c r="J22" s="29"/>
+      <c r="K22" s="70">
         <f>SUM(K19:K21)</f>
-        <v>5826.06</v>
+        <v>6895.637999999999</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="58"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="69"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="60" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="59">
+      <c r="J25" s="74"/>
+      <c r="K25" s="72">
         <f>K22</f>
-        <v>5826.06</v>
+        <v>6895.637999999999</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="58"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="52"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
+      <c r="B28" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="42" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="36"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="52"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="37"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="36"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="52"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="40"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="B20:K21"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="G29:K33"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>
@@ -1764,6 +1737,37 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B12:E17"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="B29:F33"/>
+    <mergeCell ref="G29:K33"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\proforma Invoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B K EXPORTS\BK Exports bills\25-26\proforma Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB49FBA5-1D9D-4BB9-B864-744FF3E2F365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330A31F-4A48-4807-A4F7-21508062C66F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t xml:space="preserve">  info@bkexportsinternational.com</t>
   </si>
@@ -148,14 +148,6 @@
 - 380026.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÔNG TY TNHH KGM STONE
-4101622149
-Lô F12 đường Điện Biên Phủ, phường Quy Nhơn Đông, tỉnh Gia Lai, Việt Nam
-Email: kgmstone22@gmail.com
-Sđt: 093 2442 343
-</t>
-  </si>
-  <si>
     <t>100% against Documents</t>
   </si>
   <si>
@@ -163,9 +155,6 @@
   </si>
   <si>
     <t>CNF</t>
-  </si>
-  <si>
-    <t>Quy Nhon</t>
   </si>
   <si>
     <t>Loose Packing</t>
@@ -181,7 +170,16 @@
 2. Quantity may vary 10% +/-</t>
   </si>
   <si>
-    <t>PI2506/25-26</t>
+    <t>A-A STONE INVESTMENT TRADING COMPANY LIMITED
+34/5 TRAN KHANH DU STREET, TAN DINH WARD, HOCHIMINH CITY, VIETNAM
+TAX:0317458134
+ MAIL: AASTONEDOCS@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>PI2508/25-26</t>
+  </si>
+  <si>
+    <t>Any Port Of Vietnam</t>
   </si>
 </sst>
 </file>
@@ -568,191 +566,191 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -778,13 +776,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>148653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1148,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q33"/>
+  <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,18 +1166,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
@@ -1194,22 +1192,22 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="81"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1218,50 +1216,50 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="82">
-        <v>45868</v>
-      </c>
-      <c r="K4" s="81"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="34">
+        <v>45870</v>
+      </c>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="23" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="82">
-        <v>45884</v>
-      </c>
-      <c r="K5" s="81"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="34">
+        <v>45930</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="23" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="80" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="81"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1270,16 +1268,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="80" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="81"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1288,16 +1286,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="80" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="81"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1306,32 +1304,32 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="80" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="81"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="81"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1340,114 +1338,114 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="80" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="81"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="83" t="s">
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="71"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="40"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="81"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="81"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="41"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="81"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
     </row>
     <row r="17" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
@@ -1464,7 +1462,7 @@
         <v>33</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>9</v>
@@ -1476,251 +1474,253 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="2:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="C19" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20">
         <v>68022390</v>
       </c>
       <c r="I19" s="20">
-        <v>306.39999999999998</v>
+        <v>430</v>
       </c>
       <c r="J19" s="21">
-        <v>13.5</v>
+        <v>19.78</v>
       </c>
       <c r="K19" s="22">
         <f>I19*J19</f>
-        <v>4136.3999999999996</v>
+        <v>8505.4</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
-        <v>2</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20">
-        <v>68022390</v>
-      </c>
-      <c r="I20" s="20">
-        <v>124.29</v>
-      </c>
-      <c r="J20" s="21">
-        <v>22.2</v>
-      </c>
-      <c r="K20" s="22">
-        <f>I20*J20</f>
-        <v>2759.2379999999998</v>
-      </c>
+    <row r="20" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="75" t="s">
+    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="28" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="70">
-        <f>SUM(K19:K21)</f>
-        <v>6895.637999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="56" t="s">
+      <c r="J21" s="69"/>
+      <c r="K21" s="60">
+        <f>SUM(K19:K20)</f>
+        <v>8505.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="61"/>
+    </row>
+    <row r="23" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
-    </row>
-    <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="56" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+    </row>
+    <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="73" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="74"/>
-      <c r="K25" s="72">
-        <f>K22</f>
-        <v>6895.637999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="59" t="s">
+      <c r="J24" s="64"/>
+      <c r="K24" s="62">
+        <f>K21</f>
+        <v>8505.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="71"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="63" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="61"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-    </row>
-    <row r="28" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="55"/>
+    </row>
+    <row r="27" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="39"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="52"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="55"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="39"/>
+    </row>
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="46">
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="B28:F32"/>
+    <mergeCell ref="G28:K32"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>
@@ -1737,43 +1737,12 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B12:E17"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="G29:K33"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="93" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="92" orientation="portrait" r:id="rId2"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="11" max="1048575" man="1"/>
   </colBreaks>

--- a/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B K EXPORTS\BK Exports bills\25-26\proforma Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330A31F-4A48-4807-A4F7-21508062C66F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF9B85A-88A7-4E43-BF36-2A1F59C3F097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,9 +148,6 @@
 - 380026.</t>
   </si>
   <si>
-    <t>100% against Documents</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
@@ -176,10 +173,13 @@
  MAIL: AASTONEDOCS@GMAIL.COM</t>
   </si>
   <si>
-    <t>PI2508/25-26</t>
-  </si>
-  <si>
     <t>Any Port Of Vietnam</t>
+  </si>
+  <si>
+    <t>PI2509/25-26</t>
+  </si>
+  <si>
+    <t>10 % ADVANCE AND REMAINING AGAINST DOCUMENTS</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1149,7 @@
   <dimension ref="B1:Q32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1223,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
       <c r="J4" s="34">
-        <v>45870</v>
+        <v>45920</v>
       </c>
       <c r="K4" s="31"/>
     </row>
@@ -1327,7 +1327,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
       <c r="J10" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10" s="31"/>
     </row>
@@ -1345,13 +1345,13 @@
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
       <c r="J11" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -1363,7 +1363,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
       <c r="J12" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="31"/>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
       <c r="J13" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="31"/>
     </row>
@@ -1411,7 +1411,7 @@
       <c r="H15" s="72"/>
       <c r="I15" s="73"/>
       <c r="J15" s="78" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K15" s="79"/>
     </row>
@@ -1462,7 +1462,7 @@
         <v>33</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>9</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
@@ -1492,11 +1492,11 @@
         <v>430</v>
       </c>
       <c r="J19" s="21">
-        <v>19.78</v>
+        <v>17.8</v>
       </c>
       <c r="K19" s="22">
         <f>I19*J19</f>
-        <v>8505.4</v>
+        <v>7654</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -1533,7 +1533,7 @@
       <c r="J21" s="69"/>
       <c r="K21" s="60">
         <f>SUM(K19:K20)</f>
-        <v>8505.4</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
       <c r="J24" s="64"/>
       <c r="K24" s="62">
         <f>K21</f>
-        <v>8505.4</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1613,7 +1613,7 @@
     </row>
     <row r="27" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
@@ -1691,7 +1691,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="I21:J22"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="F15:I17"/>
     <mergeCell ref="J15:K17"/>
@@ -1721,6 +1720,7 @@
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I21:J22"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="J11:K11"/>

--- a/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
+++ b/25-26/proforma Invoice/Proforma Invoice (Format ) final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B K EXPORTS\BK Exports bills\25-26\proforma Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF9B85A-88A7-4E43-BF36-2A1F59C3F097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -167,25 +166,27 @@
 2. Quantity may vary 10% +/-</t>
   </si>
   <si>
-    <t>A-A STONE INVESTMENT TRADING COMPANY LIMITED
-34/5 TRAN KHANH DU STREET, TAN DINH WARD, HOCHIMINH CITY, VIETNAM
-TAX:0317458134
- MAIL: AASTONEDOCS@GMAIL.COM</t>
-  </si>
-  <si>
     <t>Any Port Of Vietnam</t>
   </si>
   <si>
-    <t>PI2509/25-26</t>
-  </si>
-  <si>
-    <t>10 % ADVANCE AND REMAINING AGAINST DOCUMENTS</t>
+    <t>HOANG MINH STONE TRADING COMPANY LIMITED
+Lot 175 MBQH 6804 Hac Thanh Ward, Thanh Hoa 
+Province
+ Tax ID: 2803146553
+ TEL:  0392794691
+ hoangminh6868vn@gmail.com</t>
+  </si>
+  <si>
+    <t>PI0112/25-26</t>
+  </si>
+  <si>
+    <t>5% advance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
@@ -575,6 +576,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -593,164 +747,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -790,7 +791,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3663AC9E-1676-4C04-BC2C-59A059763BE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3663AC9E-1676-4C04-BC2C-59A059763BE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,23 +902,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -953,23 +937,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1145,11 +1112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,18 +1133,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="2:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
@@ -1192,22 +1159,22 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="30" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="31"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1216,50 +1183,50 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="34">
-        <v>45920</v>
-      </c>
-      <c r="K4" s="31"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="85">
+        <v>45992</v>
+      </c>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="84" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="34">
-        <v>45930</v>
-      </c>
-      <c r="K5" s="31"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="85">
+        <v>46006</v>
+      </c>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="84" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="30" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="31"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1268,16 +1235,16 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="30" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1286,16 +1253,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="30" t="s">
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="31"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1304,32 +1271,32 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="30" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="31"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="31"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1338,114 +1305,114 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="30" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="31"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="35" t="s">
+      <c r="B12" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="30" t="s">
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="31"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="35" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="30" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="31"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="85" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="70" t="s">
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="71"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="72" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="78" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="79"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="81"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
@@ -1478,25 +1445,25 @@
       <c r="B19" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20">
         <v>68022390</v>
       </c>
       <c r="I19" s="20">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="J19" s="21">
-        <v>17.8</v>
+        <v>15.75</v>
       </c>
       <c r="K19" s="22">
         <f>I19*J19</f>
-        <v>7654</v>
+        <v>6300</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -1518,193 +1485,195 @@
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="68" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="69"/>
-      <c r="K21" s="60">
+      <c r="J21" s="78"/>
+      <c r="K21" s="69">
         <f>SUM(K19:K20)</f>
-        <v>7654</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="61"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="63" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="62">
+      <c r="J24" s="73"/>
+      <c r="K24" s="71">
         <f>K21</f>
-        <v>7654</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="61"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="70"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="55"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="45" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="39"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B12:E17"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="O16:Q17"/>
     <mergeCell ref="B28:F32"/>
     <mergeCell ref="G28:K32"/>
@@ -1721,25 +1690,23 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="I21:J22"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B12:E17"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId1" display="info@bkexportsinternational.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="portrait" r:id="rId2"/>
@@ -1751,7 +1718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1763,7 +1730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
